--- a/extracted_excel/Kisii_gendered_enterprise.xlsx
+++ b/extracted_excel/Kisii_gendered_enterprise.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="49">
-  <si>
-    <t>County</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>Theme</t>
   </si>
@@ -28,9 +25,6 @@
     <t>Response</t>
   </si>
   <si>
-    <t>Kisii</t>
-  </si>
-  <si>
     <t>Enterprise Selection and Community Involvement</t>
   </si>
   <si>
@@ -142,10 +136,19 @@
     <t>What kinds of support (financial, technical, policy) would make it easier for women and marginalized groups to thrive?</t>
   </si>
   <si>
-    <t>No response provided</t>
-  </si>
-  <si>
-    <t>Avocado as it can not be affected by changing climatic conditions. Early maturing maize varieties due to unpredictable weather conditions</t>
+    <t>NAVCDP Programme (World Bank), Stakeholder engagement on ranking prioritized value chains, Dairy, Bananas, Poultry, avocado, coffee. (Community inclusion/involvement). Meeting, barazas and discussions. MESPT (Micro enterprises support programmed trust) {DANIDA}, local vegetables was substituted for coffee. Value chains have already strategies in place, ASDSP{SIDA}</t>
+  </si>
+  <si>
+    <t>Meeting, barazas and discussions</t>
+  </si>
+  <si>
+    <t>Men are becoming more involved in banana value chain than before. Men are more involved in marketing, youths are involved in nursery production, Men involved in value addition, Youth involved in transport(motorbikes). Youth involved in green house technology.</t>
+  </si>
+  <si>
+    <t>Sweet potatoes, millet as a food security crop as in does well in both wet and dry conditions, Avocado as it can not be affected by changing climatic conditions. Early maturing maize varieties due to unpredictable weather conditions</t>
+  </si>
+  <si>
+    <t>*Pyrethrum- governors manifesto (both genders), Apiculture- done by the youth self-employing enterprise. Avocados – export market, oils for purification (oil processing plant) done by the youth. *Azolla, *sunflower (governors’ manifesto) Avocado as it can not be affected by changing climatic conditions. Early maturing maize varieties due to unpredictable weather conditions</t>
   </si>
   <si>
     <t>Bananas-demand is throughout -a bunch goes for 300 depending on size on local market ,, goes upto 1000 Local veges --demand is high Poultry - demand is high -improved kienyeji is more on demand due to Good nutrition, income</t>
@@ -518,13 +521,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,414 +537,267 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="D26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="D27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
         <v>39</v>
-      </c>
-      <c r="D28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
